--- a/casos_por_regiao.xlsx
+++ b/casos_por_regiao.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1590</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1392</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>538</v>
+        <v>689</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1454</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>720</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>

--- a/casos_por_regiao.xlsx
+++ b/casos_por_regiao.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
